--- a/For_developing/Job time.xlsx
+++ b/For_developing/Job time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jirka\Documents\GitHub\micro-flakes\For_developing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C8A348-B334-438D-9953-5B9910DF024E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF7B105-4D2B-44CD-93EA-4445D99927B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4410" yWindow="-15480" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -509,7 +509,7 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -646,7 +646,7 @@
       </c>
       <c r="J4" s="3">
         <f>SUM(G25:G31)</f>
-        <v>3812.5</v>
+        <v>3874.9999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -728,7 +728,7 @@
       </c>
       <c r="J7" s="3">
         <f>SUM(J2:J4)-SUM(K2:K4)</f>
-        <v>11854.166666666664</v>
+        <v>11916.666666666664</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -1228,18 +1228,18 @@
         <v>0.36458333333333331</v>
       </c>
       <c r="C29" s="1">
-        <v>0.41666666666666669</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="0"/>
-        <v>5.208333333333337E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="G29" s="3">
         <f t="shared" si="1"/>
-        <v>312.50000000000023</v>
+        <v>375</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">

--- a/For_developing/Job time.xlsx
+++ b/For_developing/Job time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jirka\Documents\GitHub\micro-flakes\For_developing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF7B105-4D2B-44CD-93EA-4445D99927B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D3B890-810C-4270-8B6E-345C97622008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4410" yWindow="-15480" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="49">
   <si>
     <t>11. 9.</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>4. 11.</t>
+  </si>
+  <si>
+    <t>5. 11.</t>
   </si>
 </sst>
 </file>
@@ -509,7 +512,7 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -646,7 +649,7 @@
       </c>
       <c r="J4" s="3">
         <f>SUM(G25:G31)</f>
-        <v>3874.9999999999995</v>
+        <v>4374.9999999999991</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -728,7 +731,7 @@
       </c>
       <c r="J7" s="3">
         <f>SUM(J2:J4)-SUM(K2:K4)</f>
-        <v>11916.666666666664</v>
+        <v>12416.666666666664</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -1243,13 +1246,25 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
       <c r="F30" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333259E-2</v>
       </c>
       <c r="G30" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>499.99999999999955</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">

--- a/For_developing/Job time.xlsx
+++ b/For_developing/Job time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jirka\Documents\GitHub\micro-flakes\For_developing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D3B890-810C-4270-8B6E-345C97622008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE935518-0836-4216-9C11-4977B0AF7856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -512,7 +512,7 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -617,7 +617,7 @@
         <v>8166.6666666666661</v>
       </c>
       <c r="K3">
-        <v>10000</v>
+        <v>10700</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -731,7 +731,7 @@
       </c>
       <c r="J7" s="3">
         <f>SUM(J2:J4)-SUM(K2:K4)</f>
-        <v>12416.666666666664</v>
+        <v>11716.666666666664</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
